--- a/src/test/Resources/datatest/CRM.xlsx
+++ b/src/test/Resources/datatest/CRM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>EMAIL</t>
   </si>
@@ -60,12 +60,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -80,9 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,9 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -393,9 +397,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/src/test/Resources/datatest/CRM.xlsx
+++ b/src/test/Resources/datatest/CRM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BinhAT\SeleniumTestNGParallel082023\src\test\Resources\datatest\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>EMAIL</t>
   </si>
@@ -45,12 +45,16 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +73,9 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -83,10 +90,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,32 +391,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.140625"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -411,7 +429,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -422,7 +440,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -433,7 +451,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -444,7 +462,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
